--- a/DragPrediction/NL2VP DragX/1L/n/9/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1L/n/9/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>9.8827949999999998E-3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.2601527786826454E-2</v>
+        <v>0.11204784862206001</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>10.051767165635589</v>
+        <v>12.162638270419064</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.91071575559916118</v>
+        <v>1.1019660642749851</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.6290178925586792E-2</v>
+        <v>0.11651111649996</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.88732725546614877</v>
+        <v>1.0736659791140399</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.6911202328747933E-2</v>
+        <v>0.117262554817785</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.83725584590587188</v>
+        <v>1.0130795735461049</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>9.826710546754959E-2</v>
+        <v>0.11890319761573499</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.76425997835962811</v>
+        <v>0.92475457381515003</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.10590131957707438</v>
+        <v>0.12814059668826</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.57917745204697935</v>
+        <v>0.70080471697684499</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.10587682494715291</v>
+        <v>0.128110958186055</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.3834551658105248</v>
+        <v>0.46398075063073496</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.10191921476760744</v>
+        <v>0.123322249868805</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.20975583063365702</v>
+        <v>0.253804555066725</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.13728457614992978</v>
+        <v>0.16611433714141502</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-0.12736684832826448</v>
+        <v>-0.15411388647720001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7.8431151600669421E-2</v>
+        <v>9.4901693436809986E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.48125769006948349</v>
+        <v>0.58232180498407493</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>8.4664467267545465E-2</v>
+        <v>0.10244400539373001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.45823467366428927</v>
+        <v>0.55446395513378999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>8.620490914207439E-2</v>
+        <v>0.10430794006191001</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.42004376401827276</v>
+        <v>0.50825295446210994</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>9.4345073350004124E-2</v>
+        <v>0.11415753875350498</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.35252617476850412</v>
+        <v>0.42655667146988996</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.10477559571818183</v>
+        <v>0.12677847081900001</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.28524243205067357</v>
+        <v>0.34514334278131498</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.1095775886354876</v>
+        <v>0.13258888224894</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.22418215487511572</v>
+        <v>0.27126040739889001</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.1109160294472562</v>
+        <v>0.13420839563118001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.14379096732757438</v>
+        <v>0.173987070466365</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.1116007192859752</v>
+        <v>0.13503687033602998</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-0.10304727455986364</v>
+        <v>-0.124687202217435</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>6.9633152620103306E-2</v>
+        <v>8.4256114670324997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.19190110763350415</v>
+        <v>0.23220034023654001</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>7.1523241247652886E-2</v>
+        <v>8.6543121909659987E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.18366162541962397</v>
+        <v>0.222230566757745</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>7.3044938482078506E-2</v>
+        <v>8.8384375563314993E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.1680153885656033</v>
+        <v>0.20329862016438</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>7.5731368029049589E-2</v>
+        <v>9.1634955315149993E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.12325619367540495</v>
+        <v>0.14913999434723998</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>6.9950455680396706E-2</v>
+        <v>8.4640051373279998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.11572489948306612</v>
+        <v>0.14002712837451001</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.10292650843848349</v>
+        <v>0.12454107521056501</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0.1257199663013058</v>
+        <v>0.15212115922458</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.11520394550497935</v>
+        <v>0.13939677406102499</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-2.8212521065289258E-4</v>
+        <v>-3.4137150489000002E-4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0.15140541584709918</v>
+        <v>0.18320055317498998</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-0.14112953063407438</v>
+        <v>-0.17076673206723</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.334842186828926E-2</v>
+        <v>6.4551590460629998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-7.2058235328719009E-2</v>
+        <v>-8.7190464747749996E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>5.4699865497942153E-2</v>
+        <v>6.6186837252509997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-7.4529636492247933E-2</v>
+        <v>-9.0180860155619991E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>5.7380251021524796E-2</v>
+        <v>6.9430103736044996E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-6.4418516257351247E-2</v>
+        <v>-7.7946404671395006E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>6.1541201750095045E-2</v>
+        <v>7.4464854117614998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-6.3466680584863641E-2</v>
+        <v>-7.6794683507684994E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>6.6474178455347116E-2</v>
+        <v>8.0433755930970005E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-7.6325495528132239E-2</v>
+        <v>-9.2353849589039999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>5.8395687788776865E-2</v>
+        <v>7.065878222442E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>2.867072337892562E-3</v>
+        <v>3.4691575288499999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>7.5014718374764464E-2</v>
+        <v>9.0767809233464988E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-0.1127250138150124</v>
+        <v>-0.13639726671616501</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>0.14595886050581405</v>
+        <v>0.17661022121203501</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-9.4108163968376041E-2</v>
+        <v>-0.113870878401735</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>5.3791718313433885E-2</v>
+        <v>6.5087979159254988E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="1">A67*$E$1</f>
-        <v>-8.4195614404586783E-2</v>
+        <v>-0.10187669342955001</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>5.4865332889599182E-2</v>
+        <v>6.6387052796415005E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-8.0324825804256192E-2</v>
+        <v>-9.7193039223149993E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>5.7249210060384297E-2</v>
+        <v>6.9271544173064997E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-7.8140711774057847E-2</v>
+        <v>-9.4550261246609993E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>5.7664998031512399E-2</v>
+        <v>6.9774647618130001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>-6.5650231050719016E-2</v>
+        <v>-7.9436779571370006E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>5.5032686996665289E-2</v>
+        <v>6.6589551265964997E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>-6.1935623281785125E-2</v>
+        <v>-7.4942104170960006E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>5.2185290405181821E-2</v>
+        <v>6.3144201390270008E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>-3.8925487180487606E-2</v>
+        <v>-4.709983948839E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>5.2713105166574382E-2</v>
+        <v>6.3782857251554997E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>-0.16220499118393389</v>
+        <v>-0.19626803933255998</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>9.7314730733516527E-2</v>
+        <v>0.11775082418755499</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>-2.9943692715719009E-2</v>
+        <v>-3.6231868186019998E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>5.964881802717769E-2</v>
+        <v>7.2175069812885004E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>0.23129458191143804</v>
+        <v>0.27986644411284001</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>6.1127659868739671E-2</v>
+        <v>7.3964468441175005E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>0.22470092810422315</v>
+        <v>0.27188812300610998</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>6.2199845115049592E-2</v>
+        <v>7.5261812589209998E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>0.21548380060446695</v>
+        <v>0.260735398731405</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>6.1490922009582651E-2</v>
+        <v>7.4404015631595002E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>0.21390390105833057</v>
+        <v>0.25882372028057998</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>5.7983852935648762E-2</v>
+        <v>7.0160462052134998E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>0.17584065098739671</v>
+        <v>0.21276718769475</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>5.4001699120586777E-2</v>
+        <v>6.5342055935909998E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>9.8467807882041333E-2</v>
+        <v>0.11914604753727</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>1.3175146059260331E-2</v>
+        <v>1.5941926731705001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>4.3117572797107435E-2</v>
+        <v>5.2172263084499994E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>5.1301449995814055E-2</v>
+        <v>6.2074754494934999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>-6.3992134910095047E-2</v>
+        <v>-7.7430483241215001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>5.9134904519578514E-2</v>
+        <v>7.1553234468689997E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>1.5553828636971075E-2</v>
+        <v>1.8820132650735E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>5.9985527303107439E-2</v>
+        <v>7.2582488036759998E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>1.9825483004739668E-2</v>
+        <v>2.3988834435735001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>5.8262449743458684E-2</v>
+        <v>7.0497564189584999E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>2.9437824293305787E-3</v>
+        <v>3.5619767394900002E-3</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>5.6708384313508269E-2</v>
+        <v>6.8617145019345002E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>-5.3407604291900827E-3</v>
+        <v>-6.4623201193199998E-3</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>5.3307028475677691E-2</v>
+        <v>6.450150445557E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>-3.3521942416450415E-2</v>
+        <v>-4.0561550323904995E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>5.0064042385822315E-2</v>
+        <v>6.0577491286844996E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>-6.0906228087545457E-2</v>
+        <v>-7.3696535985929998E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>5.0179181031371901E-2</v>
+        <v>6.0716809047960001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>-6.8524196842314061E-2</v>
+        <v>-8.291427817920001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>1.1458406556570249E-2</v>
+        <v>1.386467193345E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>-9.5762739873756192E-2</v>
+        <v>-0.115872915247245</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>1.7542851393309918E-2</v>
+        <v>2.1226850185904998E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>-0.10157918127881406</v>
+        <v>-0.12291080934736499</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>1.797775154650413E-2</v>
+        <v>2.1753079371269999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>-9.8619921249049586E-2</v>
+        <v>-0.11933010471134999</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>1.8643100510380164E-2</v>
+        <v>2.2558151617559998E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>-0.10902030517627687</v>
+        <v>-0.13191456926329501</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>2.2415763574239668E-2</v>
+        <v>2.7123073924829998E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>-0.11653919278547108</v>
+        <v>-0.14101242327041999</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>2.8158280039177686E-2</v>
+        <v>3.4071518847405002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>-0.12783343876625208</v>
+        <v>-0.154678460907165</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>2.6870184308714878E-2</v>
+        <v>3.2512923013544998E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>-0.29572603564588018</v>
+        <v>-0.35782850313151499</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>1.3556393253483472E-2</v>
+        <v>1.6403235836715001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E145" si="2">A131*$E$1</f>
-        <v>-0.15632766849463636</v>
+        <v>-0.18915647887850998</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>1.4568260779896695E-2</v>
+        <v>1.7627595543675E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>-0.14924637634636365</v>
+        <v>-0.18058811537909999</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>1.5900494216293391E-2</v>
+        <v>1.9239598001715E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>-0.14545493597200415</v>
+        <v>-0.176000472526125</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>1.7529162497095043E-2</v>
+        <v>2.1210286621485001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>-0.13564428537550413</v>
+        <v>-0.16412958530435998</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
-        <v>1.7774427332677686E-2</v>
+        <v>2.1507057072540001E-2</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
-        <v>-0.10853618707046281</v>
+        <v>-0.13132878635525999</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
-        <v>1.783906571253719E-2</v>
+        <v>2.1585269512169998E-2</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E141">
         <f t="shared" si="2"/>
-        <v>-8.180415770176859E-2</v>
+        <v>-9.8983030819139992E-2</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2971,5 +2971,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>